--- a/data/n2v/tables/model-1200-1325-20230828-8.xlsx
+++ b/data/n2v/tables/model-1200-1325-20230828-8.xlsx
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -4960,7 +4960,7 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -5626,7 +5626,7 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -6310,7 +6310,7 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -6382,7 +6382,7 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -8452,7 +8452,7 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
